--- a/DneWebSite/upload/dcrs.xlsx
+++ b/DneWebSite/upload/dcrs.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="35">
   <si>
     <t xml:space="preserve">DcrNo</t>
   </si>
@@ -117,69 +117,6 @@
   </si>
   <si>
     <t xml:space="preserve">Reviewing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DCR-K1-4508</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Q</t>
-  </si>
-  <si>
-    <t xml:space="preserve">將#1機B3/B4匯流排電力變壓器之Uc=5kV避雷器及再循環水泵Uc=15kV避雷器全面汰換更新為氧化鋅型。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">核二改簽字106197號</t>
-  </si>
-  <si>
-    <t xml:space="preserve">會收106-0324</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017/04/26</t>
-  </si>
-  <si>
-    <t xml:space="preserve">E</t>
-  </si>
-  <si>
-    <t xml:space="preserve">謝文龍</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DCR-K1-4503P01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">更新#1 機主變壓器避雷器及附屬計數器</t>
-  </si>
-  <si>
-    <t xml:space="preserve">核二改簽字106184號</t>
-  </si>
-  <si>
-    <t xml:space="preserve">會收106-0309</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017/04/19</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Closed</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017/04/25</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017/04/20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017/04/21</t>
-  </si>
-  <si>
-    <t xml:space="preserve">同意</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017/04/24</t>
-  </si>
-  <si>
-    <t xml:space="preserve">同意 (但要求需填寫相關文件後補審。)</t>
   </si>
 </sst>
 </file>
@@ -372,132 +309,6 @@
       <c r="AA2" s="1"/>
       <c r="AB2" s="1"/>
     </row>
-    <row r="3">
-      <c r="A3" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="M3" s="1"/>
-      <c r="N3" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="O3" s="1"/>
-      <c r="P3" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q3" s="1"/>
-      <c r="R3" s="1"/>
-      <c r="S3" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="T3" s="1"/>
-      <c r="U3" s="1"/>
-      <c r="V3" s="1"/>
-      <c r="W3" s="1"/>
-      <c r="X3" s="1"/>
-      <c r="Y3" s="1"/>
-      <c r="Z3" s="1"/>
-      <c r="AA3" s="1"/>
-      <c r="AB3" s="1"/>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="M4" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="N4" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="O4" s="1"/>
-      <c r="P4" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="Q4" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="R4" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="S4" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="T4" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="U4" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="V4" s="1"/>
-      <c r="W4" s="1"/>
-      <c r="X4" s="1"/>
-      <c r="Y4" s="1"/>
-      <c r="Z4" s="1"/>
-      <c r="AA4" s="1"/>
-      <c r="AB4" s="1"/>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/DneWebSite/upload/dcrs.xlsx
+++ b/DneWebSite/upload/dcrs.xlsx
@@ -12,14 +12,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="35">
-  <si>
-    <t xml:space="preserve">DcrNo</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="57">
   <si>
     <t xml:space="preserve">提案電廠</t>
   </si>
   <si>
+    <t xml:space="preserve">編號</t>
+  </si>
+  <si>
     <t xml:space="preserve">類別</t>
   </si>
   <si>
@@ -44,18 +44,6 @@
     <t xml:space="preserve">承辦人</t>
   </si>
   <si>
-    <t xml:space="preserve">會辦組別</t>
-  </si>
-  <si>
-    <t xml:space="preserve">審查結果</t>
-  </si>
-  <si>
-    <t xml:space="preserve">回覆日期</t>
-  </si>
-  <si>
-    <t xml:space="preserve">是否結案</t>
-  </si>
-  <si>
     <t xml:space="preserve">備註</t>
   </si>
   <si>
@@ -86,24 +74,42 @@
     <t xml:space="preserve">(核安會)結果</t>
   </si>
   <si>
+    <t xml:space="preserve">(核技處)會辦組別</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(核技處)審查結果</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(核技處)彙總日期</t>
+  </si>
+  <si>
     <t xml:space="preserve">(AEC)陳報日期</t>
   </si>
   <si>
     <t xml:space="preserve">(AEC)陳報文號</t>
   </si>
   <si>
-    <t xml:space="preserve">(AEC)核准日期</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(AEC)核准文號</t>
+    <t xml:space="preserve">(AEC)回覆日期</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(AEC)回覆文號</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(AEC)審查結果</t>
+  </si>
+  <si>
+    <t xml:space="preserve">回覆結果</t>
+  </si>
+  <si>
+    <t xml:space="preserve">回覆電廠日期</t>
+  </si>
+  <si>
+    <t xml:space="preserve">核二廠</t>
   </si>
   <si>
     <t xml:space="preserve">DCR-K1-4534</t>
   </si>
   <si>
-    <t xml:space="preserve">核二廠</t>
-  </si>
-  <si>
     <t xml:space="preserve">NA</t>
   </si>
   <si>
@@ -116,7 +122,67 @@
     <t xml:space="preserve">M</t>
   </si>
   <si>
-    <t xml:space="preserve">Reviewing</t>
+    <t xml:space="preserve">審查中</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DCR-K1-4508</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q</t>
+  </si>
+  <si>
+    <t xml:space="preserve">將#1機B3/B4匯流排電力變壓器之Uc=5kV避雷器及再循環水泵Uc=15kV避雷器全面汰換更新為氧化鋅型。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">核二改簽字106197號</t>
+  </si>
+  <si>
+    <t xml:space="preserve">會收106-0324</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017/04/26</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E</t>
+  </si>
+  <si>
+    <t xml:space="preserve">謝文龍</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DCR-K1-4503P01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">更新#1 機主變壓器避雷器及附屬計數器</t>
+  </si>
+  <si>
+    <t xml:space="preserve">核二改簽字106184號</t>
+  </si>
+  <si>
+    <t xml:space="preserve">會收106-0309</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017/04/19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017/04/20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017/04/21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">同意</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017/04/24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">同意 (但要求需填寫相關文件後補審。)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017/04/25</t>
   </si>
 </sst>
 </file>
@@ -252,48 +318,48 @@
       <c r="AB1" s="1" t="s">
         <v>27</v>
       </c>
+      <c r="AC1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>34</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
       <c r="M2" s="1"/>
-      <c r="N2" s="1" t="b">
-        <v>0</v>
-      </c>
+      <c r="N2" s="1"/>
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
       <c r="Q2" s="1"/>
@@ -308,6 +374,136 @@
       <c r="Z2" s="1"/>
       <c r="AA2" s="1"/>
       <c r="AB2" s="1"/>
+      <c r="AC2" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AD2" s="1"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+      <c r="O3" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="P3" s="1"/>
+      <c r="Q3" s="1"/>
+      <c r="R3" s="1"/>
+      <c r="S3" s="1"/>
+      <c r="T3" s="1"/>
+      <c r="U3" s="1"/>
+      <c r="V3" s="1"/>
+      <c r="W3" s="1"/>
+      <c r="X3" s="1"/>
+      <c r="Y3" s="1"/>
+      <c r="Z3" s="1"/>
+      <c r="AA3" s="1"/>
+      <c r="AB3" s="1"/>
+      <c r="AC3" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AD3" s="1"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="P4" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q4" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="R4" s="1"/>
+      <c r="S4" s="1"/>
+      <c r="T4" s="1"/>
+      <c r="U4" s="1"/>
+      <c r="V4" s="1"/>
+      <c r="W4" s="1"/>
+      <c r="X4" s="1"/>
+      <c r="Y4" s="1"/>
+      <c r="Z4" s="1"/>
+      <c r="AA4" s="1"/>
+      <c r="AB4" s="1"/>
+      <c r="AC4" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AD4" s="1" t="s">
+        <v>56</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/DneWebSite/upload/dcrs.xlsx
+++ b/DneWebSite/upload/dcrs.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="53">
   <si>
     <t xml:space="preserve">提案電廠</t>
   </si>
@@ -107,46 +107,34 @@
     <t xml:space="preserve">核二廠</t>
   </si>
   <si>
-    <t xml:space="preserve">DCR-K1-4534</t>
+    <t xml:space="preserve">DCR-K1-4508</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q</t>
   </si>
   <si>
     <t xml:space="preserve">NA</t>
   </si>
   <si>
-    <t xml:space="preserve">將#1/#2機燃料護箱吊車(KF-1/2C-3)電盤支撐架平台螺栓補強改善</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017/04/28</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M</t>
+    <t xml:space="preserve">將#1機B3/B4匯流排電力變壓器之Uc=5kV避雷器及再循環水泵Uc=15kV避雷器全面汰換更新為氧化鋅型。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">核二改簽字106197號</t>
+  </si>
+  <si>
+    <t xml:space="preserve">會收106-0324</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017/04/26</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E</t>
+  </si>
+  <si>
+    <t xml:space="preserve">謝文龍</t>
   </si>
   <si>
     <t xml:space="preserve">審查中</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DCR-K1-4508</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Q</t>
-  </si>
-  <si>
-    <t xml:space="preserve">將#1機B3/B4匯流排電力變壓器之Uc=5kV避雷器及再循環水泵Uc=15kV避雷器全面汰換更新為氧化鋅型。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">核二改簽字106197號</t>
-  </si>
-  <si>
-    <t xml:space="preserve">會收106-0324</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017/04/26</t>
-  </si>
-  <si>
-    <t xml:space="preserve">E</t>
-  </si>
-  <si>
-    <t xml:space="preserve">謝文龍</t>
   </si>
   <si>
     <t xml:space="preserve">DCR-K1-4503P01</t>
@@ -336,31 +324,35 @@
         <v>32</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
+      <c r="L2" s="1" t="s">
+        <v>37</v>
+      </c>
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
-      <c r="O2" s="1"/>
+      <c r="O2" s="1" t="s">
+        <v>37</v>
+      </c>
       <c r="P2" s="1"/>
       <c r="Q2" s="1"/>
       <c r="R2" s="1"/>
@@ -375,7 +367,7 @@
       <c r="AA2" s="1"/>
       <c r="AB2" s="1"/>
       <c r="AC2" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="AD2" s="1"/>
     </row>
@@ -384,43 +376,51 @@
         <v>30</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="I3" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E3" s="1" t="s">
+      <c r="J3" s="1" t="s">
         <v>39</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>44</v>
       </c>
       <c r="K3" s="1"/>
       <c r="L3" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="M3" s="1"/>
-      <c r="N3" s="1"/>
+        <v>47</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>49</v>
+      </c>
       <c r="O3" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="P3" s="1"/>
-      <c r="Q3" s="1"/>
+        <v>47</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>51</v>
+      </c>
       <c r="R3" s="1"/>
       <c r="S3" s="1"/>
       <c r="T3" s="1"/>
@@ -433,76 +433,10 @@
       <c r="AA3" s="1"/>
       <c r="AB3" s="1"/>
       <c r="AC3" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="AD3" s="1"/>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="G4" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="H4" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="M4" s="1" t="s">
+      <c r="AD3" s="1" t="s">
         <v>52</v>
-      </c>
-      <c r="N4" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="O4" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="P4" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="Q4" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="R4" s="1"/>
-      <c r="S4" s="1"/>
-      <c r="T4" s="1"/>
-      <c r="U4" s="1"/>
-      <c r="V4" s="1"/>
-      <c r="W4" s="1"/>
-      <c r="X4" s="1"/>
-      <c r="Y4" s="1"/>
-      <c r="Z4" s="1"/>
-      <c r="AA4" s="1"/>
-      <c r="AB4" s="1"/>
-      <c r="AC4" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="AD4" s="1" t="s">
-        <v>56</v>
       </c>
     </row>
   </sheetData>

--- a/DneWebSite/upload/dcrs.xlsx
+++ b/DneWebSite/upload/dcrs.xlsx
@@ -17,7 +17,7 @@
     <t xml:space="preserve">提案電廠</t>
   </si>
   <si>
-    <t xml:space="preserve">編號</t>
+    <t xml:space="preserve">DCR編號</t>
   </si>
   <si>
     <t xml:space="preserve">類別</t>
@@ -44,64 +44,64 @@
     <t xml:space="preserve">承辦人</t>
   </si>
   <si>
+    <t xml:space="preserve">(核發處)送會日期</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(核發處)審覆日期</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(核發處)審查結果</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(核安處)送會日期</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(核安處)審覆日期</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(核安處)審查結果</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(核安會)送會日期</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(核安會)審覆日期</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(核安會)結果</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(核技處)會辦組別</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(核技處)審查結果</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(核技處)彙總日期</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(AEC)陳報日期</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(AEC)陳報文號</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(AEC)回覆日期</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(AEC)回覆文號</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(AEC)審查結果</t>
+  </si>
+  <si>
+    <t xml:space="preserve">回覆電廠日期</t>
+  </si>
+  <si>
+    <t xml:space="preserve">回覆結果</t>
+  </si>
+  <si>
     <t xml:space="preserve">備註</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(核發處)送會日期</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(核發處)審覆日期</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(核發處)審查結果</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(核安處)送會日期</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(核安處)審覆日期</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(核安處)審查結果</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(核安會)送會日期</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(核安會)審覆日期</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(核安會)結果</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(核技處)會辦組別</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(核技處)審查結果</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(核技處)彙總日期</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(AEC)陳報日期</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(AEC)陳報文號</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(AEC)回覆日期</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(AEC)回覆文號</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(AEC)審查結果</t>
-  </si>
-  <si>
-    <t xml:space="preserve">回覆結果</t>
-  </si>
-  <si>
-    <t xml:space="preserve">回覆電廠日期</t>
   </si>
   <si>
     <t xml:space="preserve">核二廠</t>
@@ -344,15 +344,15 @@
       <c r="J2" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>37</v>
       </c>
+      <c r="L2" s="1"/>
       <c r="M2" s="1"/>
-      <c r="N2" s="1"/>
-      <c r="O2" s="1" t="s">
+      <c r="N2" s="1" t="s">
         <v>37</v>
       </c>
+      <c r="O2" s="1"/>
       <c r="P2" s="1"/>
       <c r="Q2" s="1"/>
       <c r="R2" s="1"/>
@@ -402,25 +402,25 @@
       <c r="J3" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="K3" s="1"/>
+      <c r="K3" s="1" t="s">
+        <v>47</v>
+      </c>
       <c r="L3" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="N3" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="M3" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="N3" s="1" t="s">
-        <v>49</v>
-      </c>
       <c r="O3" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="P3" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q3" s="1" t="s">
         <v>51</v>
       </c>
+      <c r="Q3" s="1"/>
       <c r="R3" s="1"/>
       <c r="S3" s="1"/>
       <c r="T3" s="1"/>
@@ -431,13 +431,13 @@
       <c r="Y3" s="1"/>
       <c r="Z3" s="1"/>
       <c r="AA3" s="1"/>
-      <c r="AB3" s="1"/>
+      <c r="AB3" s="1" t="s">
+        <v>52</v>
+      </c>
       <c r="AC3" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="AD3" s="1" t="s">
-        <v>52</v>
-      </c>
+      <c r="AD3" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
